--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Dll4-Notch2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Dll4-Notch2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -83,12 +89,6 @@
   </si>
   <si>
     <t>Notch2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.235363501013789</v>
+        <v>36.16916666666666</v>
       </c>
       <c r="H2">
-        <v>0.235363501013789</v>
+        <v>108.5075</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9882701353977675</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9882701353977674</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.65787809277289</v>
+        <v>31.96029466666667</v>
       </c>
       <c r="N2">
-        <v>7.65787809277289</v>
+        <v>95.88088399999999</v>
       </c>
       <c r="O2">
-        <v>0.1388037246686551</v>
+        <v>0.3907265741426954</v>
       </c>
       <c r="P2">
-        <v>0.1388037246686551</v>
+        <v>0.3907265741426953</v>
       </c>
       <c r="Q2">
-        <v>1.802384998251825</v>
+        <v>1155.977224514444</v>
       </c>
       <c r="R2">
-        <v>1.802384998251825</v>
+        <v>10403.79502063</v>
       </c>
       <c r="S2">
-        <v>0.1388037246686551</v>
+        <v>0.3861434043315075</v>
       </c>
       <c r="T2">
-        <v>0.1388037246686551</v>
+        <v>0.3861434043315073</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.235363501013789</v>
+        <v>36.16916666666666</v>
       </c>
       <c r="H3">
-        <v>0.235363501013789</v>
+        <v>108.5075</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9882701353977675</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9882701353977674</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>26.326460990703</v>
+        <v>26.34807</v>
       </c>
       <c r="N3">
-        <v>26.326460990703</v>
+        <v>79.04420999999999</v>
       </c>
       <c r="O3">
-        <v>0.4771832090539915</v>
+        <v>0.3221150253382706</v>
       </c>
       <c r="P3">
-        <v>0.4771832090539915</v>
+        <v>0.3221150253382706</v>
       </c>
       <c r="Q3">
-        <v>6.196288028074802</v>
+        <v>952.9877351749998</v>
       </c>
       <c r="R3">
-        <v>6.196288028074802</v>
+        <v>8576.889616574999</v>
       </c>
       <c r="S3">
-        <v>0.4771832090539915</v>
+        <v>0.318336659704708</v>
       </c>
       <c r="T3">
-        <v>0.4771832090539915</v>
+        <v>0.3183366597047079</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,433 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>36.16916666666666</v>
+      </c>
+      <c r="H4">
+        <v>108.5075</v>
+      </c>
+      <c r="I4">
+        <v>0.9882701353977675</v>
+      </c>
+      <c r="J4">
+        <v>0.9882701353977674</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>23.48872</v>
+      </c>
+      <c r="N4">
+        <v>70.46616</v>
+      </c>
+      <c r="O4">
+        <v>0.287158400519034</v>
+      </c>
+      <c r="P4">
+        <v>0.287158400519034</v>
+      </c>
+      <c r="Q4">
+        <v>849.5674284666666</v>
+      </c>
+      <c r="R4">
+        <v>7646.1068562</v>
+      </c>
+      <c r="S4">
+        <v>0.2837900713615521</v>
+      </c>
+      <c r="T4">
+        <v>0.283790071361552</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.046679</v>
+      </c>
+      <c r="H5">
+        <v>0.140037</v>
+      </c>
+      <c r="I5">
+        <v>0.001275436121472683</v>
+      </c>
+      <c r="J5">
+        <v>0.001275436121472683</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>31.96029466666667</v>
+      </c>
+      <c r="N5">
+        <v>95.88088399999999</v>
+      </c>
+      <c r="O5">
+        <v>0.3907265741426954</v>
+      </c>
+      <c r="P5">
+        <v>0.3907265741426953</v>
+      </c>
+      <c r="Q5">
+        <v>1.491874594745333</v>
+      </c>
+      <c r="R5">
+        <v>13.426871352708</v>
+      </c>
+      <c r="S5">
+        <v>0.0004983467862808682</v>
+      </c>
+      <c r="T5">
+        <v>0.0004983467862808681</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.046679</v>
+      </c>
+      <c r="H6">
+        <v>0.140037</v>
+      </c>
+      <c r="I6">
+        <v>0.001275436121472683</v>
+      </c>
+      <c r="J6">
+        <v>0.001275436121472683</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>26.34807</v>
+      </c>
+      <c r="N6">
+        <v>79.04420999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.3221150253382706</v>
+      </c>
+      <c r="P6">
+        <v>0.3221150253382706</v>
+      </c>
+      <c r="Q6">
+        <v>1.22990155953</v>
+      </c>
+      <c r="R6">
+        <v>11.06911403577</v>
+      </c>
+      <c r="S6">
+        <v>0.0004108371385855189</v>
+      </c>
+      <c r="T6">
+        <v>0.0004108371385855189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.046679</v>
+      </c>
+      <c r="H7">
+        <v>0.140037</v>
+      </c>
+      <c r="I7">
+        <v>0.001275436121472683</v>
+      </c>
+      <c r="J7">
+        <v>0.001275436121472683</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>23.48872</v>
+      </c>
+      <c r="N7">
+        <v>70.46616</v>
+      </c>
+      <c r="O7">
+        <v>0.287158400519034</v>
+      </c>
+      <c r="P7">
+        <v>0.287158400519034</v>
+      </c>
+      <c r="Q7">
+        <v>1.09642996088</v>
+      </c>
+      <c r="R7">
+        <v>9.867869647919999</v>
+      </c>
+      <c r="S7">
+        <v>0.0003662521966062961</v>
+      </c>
+      <c r="T7">
+        <v>0.000366252196606296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.235363501013789</v>
-      </c>
-      <c r="H4">
-        <v>0.235363501013789</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>21.1862127951093</v>
-      </c>
-      <c r="N4">
-        <v>21.1862127951093</v>
-      </c>
-      <c r="O4">
-        <v>0.3840130662773534</v>
-      </c>
-      <c r="P4">
-        <v>0.3840130662773534</v>
-      </c>
-      <c r="Q4">
-        <v>4.986461216680057</v>
-      </c>
-      <c r="R4">
-        <v>4.986461216680057</v>
-      </c>
-      <c r="S4">
-        <v>0.3840130662773534</v>
-      </c>
-      <c r="T4">
-        <v>0.3840130662773534</v>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.382616</v>
+      </c>
+      <c r="H8">
+        <v>1.147848</v>
+      </c>
+      <c r="I8">
+        <v>0.01045442848075992</v>
+      </c>
+      <c r="J8">
+        <v>0.01045442848075992</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>31.96029466666667</v>
+      </c>
+      <c r="N8">
+        <v>95.88088399999999</v>
+      </c>
+      <c r="O8">
+        <v>0.3907265741426954</v>
+      </c>
+      <c r="P8">
+        <v>0.3907265741426953</v>
+      </c>
+      <c r="Q8">
+        <v>12.22852010418133</v>
+      </c>
+      <c r="R8">
+        <v>110.056680937632</v>
+      </c>
+      <c r="S8">
+        <v>0.004084823024907146</v>
+      </c>
+      <c r="T8">
+        <v>0.004084823024907145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.382616</v>
+      </c>
+      <c r="H9">
+        <v>1.147848</v>
+      </c>
+      <c r="I9">
+        <v>0.01045442848075992</v>
+      </c>
+      <c r="J9">
+        <v>0.01045442848075992</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>26.34807</v>
+      </c>
+      <c r="N9">
+        <v>79.04420999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.3221150253382706</v>
+      </c>
+      <c r="P9">
+        <v>0.3221150253382706</v>
+      </c>
+      <c r="Q9">
+        <v>10.08119315112</v>
+      </c>
+      <c r="R9">
+        <v>90.73073836008</v>
+      </c>
+      <c r="S9">
+        <v>0.003367528494977119</v>
+      </c>
+      <c r="T9">
+        <v>0.003367528494977118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.382616</v>
+      </c>
+      <c r="H10">
+        <v>1.147848</v>
+      </c>
+      <c r="I10">
+        <v>0.01045442848075992</v>
+      </c>
+      <c r="J10">
+        <v>0.01045442848075992</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>23.48872</v>
+      </c>
+      <c r="N10">
+        <v>70.46616</v>
+      </c>
+      <c r="O10">
+        <v>0.287158400519034</v>
+      </c>
+      <c r="P10">
+        <v>0.287158400519034</v>
+      </c>
+      <c r="Q10">
+        <v>8.98716009152</v>
+      </c>
+      <c r="R10">
+        <v>80.88444082367999</v>
+      </c>
+      <c r="S10">
+        <v>0.003002076960875653</v>
+      </c>
+      <c r="T10">
+        <v>0.003002076960875652</v>
       </c>
     </row>
   </sheetData>
